--- a/Claims data/mh_sud_dx_lookup_rda.xlsx
+++ b/Claims data/mh_sud_dx_lookup_rda.xlsx
@@ -16,8 +16,8 @@
     <sheet name="sud" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mh!$B$1:$C$1875</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sud!$B$1:$C$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mh!$A$1:$C$1875</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sud!$B$1:$C$1119</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -18725,7 +18725,7 @@
   <dimension ref="A1:C1875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20268,7 +20268,7 @@
         <v>2053</v>
       </c>
       <c r="B140" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
         <v>1704</v>
@@ -20279,7 +20279,7 @@
         <v>2054</v>
       </c>
       <c r="B141" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
         <v>1705</v>
@@ -20290,7 +20290,7 @@
         <v>2055</v>
       </c>
       <c r="B142" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
         <v>1706</v>
@@ -20301,7 +20301,7 @@
         <v>2056</v>
       </c>
       <c r="B143" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
         <v>1707</v>
@@ -20312,7 +20312,7 @@
         <v>2057</v>
       </c>
       <c r="B144" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
         <v>1708</v>
@@ -20323,7 +20323,7 @@
         <v>2058</v>
       </c>
       <c r="B145" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>1709</v>
@@ -20334,7 +20334,7 @@
         <v>2059</v>
       </c>
       <c r="B146" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>1710</v>
@@ -20345,7 +20345,7 @@
         <v>2060</v>
       </c>
       <c r="B147" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
         <v>1711</v>
@@ -20356,7 +20356,7 @@
         <v>2061</v>
       </c>
       <c r="B148" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
         <v>1712</v>
@@ -20367,7 +20367,7 @@
         <v>2062</v>
       </c>
       <c r="B149" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
         <v>1713</v>
@@ -20378,7 +20378,7 @@
         <v>2063</v>
       </c>
       <c r="B150" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
         <v>1714</v>
@@ -20389,7 +20389,7 @@
         <v>2064</v>
       </c>
       <c r="B151" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
         <v>1715</v>
@@ -20400,7 +20400,7 @@
         <v>2065</v>
       </c>
       <c r="B152" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
         <v>1716</v>
@@ -20411,7 +20411,7 @@
         <v>2066</v>
       </c>
       <c r="B153" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
         <v>1717</v>
@@ -20422,7 +20422,7 @@
         <v>2067</v>
       </c>
       <c r="B154" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
         <v>1718</v>
@@ -20433,7 +20433,7 @@
         <v>2068</v>
       </c>
       <c r="B155" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
         <v>1719</v>
@@ -20444,7 +20444,7 @@
         <v>2069</v>
       </c>
       <c r="B156" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>1720</v>
@@ -20455,7 +20455,7 @@
         <v>2070</v>
       </c>
       <c r="B157" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
         <v>1721</v>
@@ -20466,7 +20466,7 @@
         <v>2071</v>
       </c>
       <c r="B158" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
         <v>1722</v>
@@ -20477,7 +20477,7 @@
         <v>2072</v>
       </c>
       <c r="B159" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
         <v>1723</v>
@@ -20488,7 +20488,7 @@
         <v>2073</v>
       </c>
       <c r="B160" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
         <v>1724</v>
@@ -20499,7 +20499,7 @@
         <v>2160</v>
       </c>
       <c r="B161" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
         <v>1725</v>
@@ -20510,7 +20510,7 @@
         <v>2074</v>
       </c>
       <c r="B162" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
         <v>1726</v>
@@ -20521,7 +20521,7 @@
         <v>2075</v>
       </c>
       <c r="B163" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>1727</v>
@@ -20532,7 +20532,7 @@
         <v>2076</v>
       </c>
       <c r="B164" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
         <v>1728</v>
@@ -20543,7 +20543,7 @@
         <v>2077</v>
       </c>
       <c r="B165" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
         <v>1729</v>
@@ -20554,7 +20554,7 @@
         <v>2078</v>
       </c>
       <c r="B166" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
         <v>1730</v>
@@ -20565,7 +20565,7 @@
         <v>2079</v>
       </c>
       <c r="B167" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>1731</v>
@@ -20576,7 +20576,7 @@
         <v>2080</v>
       </c>
       <c r="B168" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
         <v>1732</v>
@@ -20587,7 +20587,7 @@
         <v>2081</v>
       </c>
       <c r="B169" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
         <v>1733</v>
@@ -20598,7 +20598,7 @@
         <v>2082</v>
       </c>
       <c r="B170" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>1734</v>
@@ -20609,7 +20609,7 @@
         <v>2161</v>
       </c>
       <c r="B171" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
         <v>1735</v>
@@ -20620,7 +20620,7 @@
         <v>2083</v>
       </c>
       <c r="B172" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
         <v>1736</v>
@@ -20631,7 +20631,7 @@
         <v>2084</v>
       </c>
       <c r="B173" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
         <v>1737</v>
@@ -20642,7 +20642,7 @@
         <v>2085</v>
       </c>
       <c r="B174" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>1738</v>
@@ -20653,7 +20653,7 @@
         <v>2086</v>
       </c>
       <c r="B175" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
         <v>1739</v>
@@ -20664,7 +20664,7 @@
         <v>2087</v>
       </c>
       <c r="B176" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>1740</v>
@@ -20675,7 +20675,7 @@
         <v>2088</v>
       </c>
       <c r="B177" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>1741</v>
@@ -20686,7 +20686,7 @@
         <v>2089</v>
       </c>
       <c r="B178" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
         <v>1742</v>
@@ -20697,7 +20697,7 @@
         <v>2090</v>
       </c>
       <c r="B179" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>1743</v>
@@ -20708,7 +20708,7 @@
         <v>2091</v>
       </c>
       <c r="B180" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>1744</v>
@@ -20719,7 +20719,7 @@
         <v>2092</v>
       </c>
       <c r="B181" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>1745</v>
@@ -20730,7 +20730,7 @@
         <v>2093</v>
       </c>
       <c r="B182" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
         <v>1746</v>
@@ -20741,7 +20741,7 @@
         <v>2094</v>
       </c>
       <c r="B183" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
         <v>1747</v>
@@ -20752,7 +20752,7 @@
         <v>2095</v>
       </c>
       <c r="B184" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
         <v>1723</v>
@@ -20763,7 +20763,7 @@
         <v>2096</v>
       </c>
       <c r="B185" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
         <v>1724</v>
@@ -20774,7 +20774,7 @@
         <v>2162</v>
       </c>
       <c r="B186" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>1748</v>
@@ -39360,6 +39360,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1875"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -39370,7 +39371,7 @@
   <dimension ref="A1:C1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51690,7 +51691,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C247"/>
+  <autoFilter ref="B1:C1119"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>